--- a/data/03013.xlsx
+++ b/data/03013.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8427,6 +8427,43 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>03013</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>TOPVISN</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
